--- a/excel_templates/생산입고_template.xlsx
+++ b/excel_templates/생산입고_template.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD51EF66-DF1E-4339-A24C-C4B40DA2A74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="11895" yWindow="3750" windowWidth="21810" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="sheet1" state="visible" r:id="rId4"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>입고일자</t>
   </si>
@@ -113,28 +117,60 @@
   </si>
   <si>
     <t>타입 : 문자 길이 : 4 필수 : False 설명 : 영문/숫자 기준 4자리(최대)를 입력 하세요.</t>
+  </si>
+  <si>
+    <t>사업장코드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIV_CD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드시엔 삭제필</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,8 +191,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFd3d3d3"/>
-        <bgColor rgb="FFd3d3d3"/>
+        <fgColor rgb="FFD3D3D3"/>
+        <bgColor rgb="FFD3D3D3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FFFEF3F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -187,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -201,9 +255,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -539,119 +600,131 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="2" customWidth="1"/>
-    <col min="4" max="5" width="20" style="1" customWidth="1"/>
-    <col min="6" max="13" width="20" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.875" style="8" customWidth="1"/>
+    <col min="2" max="3" width="20" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="2" customWidth="1"/>
+    <col min="5" max="6" width="20" style="1" customWidth="1"/>
+    <col min="7" max="14" width="20" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="19" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>31</v>
@@ -660,20 +733,24 @@
         <v>31</v>
       </c>
       <c r="J3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>33</v>
       </c>
       <c r="M3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>